--- a/STAT/finalStat/test_multiple.xlsx
+++ b/STAT/finalStat/test_multiple.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC354DA-152E-457F-834E-EF51F15A1B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{278AAD79-1A03-4CDA-AD17-AED5DC754E1D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Sum/N</t>
   </si>
@@ -63,10 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,16 +146,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,38 +469,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AED45CE-2390-47CE-80A0-BF80E3A522AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -527,7 +524,7 @@
         <f>26.3414-0.0226*(A2)+0.0665*(B2)+0.0313*(C2)-0.0215*(D2)</f>
         <v>32.603999999999999</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="10">
         <f>F2-E2</f>
         <v>7.6039999999999992</v>
       </c>
@@ -556,7 +553,7 @@
         <f t="shared" ref="F3:F11" si="0">26.3414-0.0226*(A3)+0.0665*(B3)+0.0313*(C3)-0.0215*(D3)</f>
         <v>36.525500000000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G11" si="1">F3-E3</f>
         <v>-9.474499999999999</v>
       </c>
@@ -585,7 +582,7 @@
         <f t="shared" si="0"/>
         <v>27.055700000000005</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="10">
         <f t="shared" si="1"/>
         <v>-6.9442999999999948</v>
       </c>
@@ -614,7 +611,7 @@
         <f t="shared" si="0"/>
         <v>38.945</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
         <v>2.9450000000000003</v>
       </c>
@@ -643,7 +640,7 @@
         <f t="shared" si="0"/>
         <v>27.409399999999998</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>1.409399999999998</v>
       </c>
@@ -672,7 +669,7 @@
         <f t="shared" si="0"/>
         <v>34.025399999999998</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>22.025399999999998</v>
       </c>
@@ -701,7 +698,7 @@
         <f t="shared" si="0"/>
         <v>26.475300000000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>-16.524699999999999</v>
       </c>
@@ -730,7 +727,7 @@
         <f t="shared" si="0"/>
         <v>25.829499999999999</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
         <v>17.829499999999999</v>
       </c>
@@ -759,8 +756,8 @@
         <f t="shared" si="0"/>
         <v>30.339700000000001</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
+      <c r="G10" s="10">
+        <f>F10-E10</f>
         <v>-15.660299999999999</v>
       </c>
       <c r="H10" s="10">
@@ -788,7 +785,7 @@
         <f t="shared" si="0"/>
         <v>31.353499999999997</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
         <v>13.353499999999997</v>
       </c>
@@ -805,7 +802,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>1706.1056859399998</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -834,9 +834,385 @@
       <c r="G14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="9">
         <f>SQRT(H13)</f>
         <v>13.061798061293091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <f>21.8802+0.01355*(A2)+0.03034*(B2)+0.00301*(C2)-0.11776*(D2)</f>
+        <v>20.121429999999997</v>
+      </c>
+      <c r="G2" s="10">
+        <f>F2-E2</f>
+        <v>0.1214299999999966</v>
+      </c>
+      <c r="H2" s="10">
+        <f>G2^2</f>
+        <v>1.4745244899999174E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="0">21.8802+0.01355*(A3)+0.03034*(B3)+0.00301*(C3)-0.11776*(D3)</f>
+        <v>17.498839999999998</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G11" si="1">F3-E3</f>
+        <v>4.4988399999999977</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H11" si="2">G3^2</f>
+        <v>20.239561345599981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1">
+        <v>149</v>
+      </c>
+      <c r="D4" s="1">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>18.018079999999998</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="1"/>
+        <v>-19.981920000000002</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="2"/>
+        <v>399.27712688640008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>19.506849999999996</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="1"/>
+        <v>-23.493150000000004</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>551.92809692250012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>17.02186</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>-17.97814</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>323.21351785960002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1">
+        <v>96</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>20.741579999999999</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>12.741579999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>162.34786089639996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>20.681249999999999</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>-16.318750000000001</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>266.30160156250003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1">
+        <v>128</v>
+      </c>
+      <c r="D9" s="1">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>18.527990000000003</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>-17.472009999999997</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>305.2711334400999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>19.24933</v>
+      </c>
+      <c r="G10" s="10">
+        <f>F10-E10</f>
+        <v>-12.75067</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>162.57958544889999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>221</v>
+      </c>
+      <c r="B11" s="1">
+        <v>98</v>
+      </c>
+      <c r="C11" s="1">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>20.52741</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>-10.47259</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>109.67514130810001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>2300.848370915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <f>SUM(H2:H11)/10</f>
+        <v>230.08483709149999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SQRT(H13)</f>
+        <v>15.168547626305559</v>
       </c>
     </row>
   </sheetData>

--- a/STAT/finalStat/test_multiple.xlsx
+++ b/STAT/finalStat/test_multiple.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E96AC-DC4F-48DC-8F7E-EBBD23A23F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_final" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>Sum/N</t>
   </si>
@@ -59,11 +61,17 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>predicted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,11 +477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,10 +853,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1218,4 +1226,416 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF4280F-800D-4C36-897E-565EE42152BA}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2">
+        <f>93.51289-0.00719*(A2)+0.14901*(B2)-0.26094*(C2)-0.80441*(D2)-0.2382*(E2)</f>
+        <v>60.670859999999983</v>
+      </c>
+      <c r="H2" s="10">
+        <f>G2-F2</f>
+        <v>17.670859999999983</v>
+      </c>
+      <c r="I2" s="10">
+        <f>H2^2</f>
+        <v>312.25929313959944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="0">93.51289-0.00719*(A3)+0.14901*(B3)-0.26094*(C3)-0.80441*(D3)-0.2382*(E3)</f>
+        <v>52.09836</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>24.09836</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I11" si="2">H3^2</f>
+        <v>580.73095468960003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="1"/>
+        <v>20.799999999999997</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="2"/>
+        <v>432.63999999999987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>46.807230000000004</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="1"/>
+        <v>-27.192769999999996</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="2"/>
+        <v>739.44674027289977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>157</v>
+      </c>
+      <c r="B6" s="2">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2">
+        <f>93.51289-0.00719*(A6)+0.14901*(B6)-0.26094*(C6)-0.80441*(D6)-0.2382*(E6)</f>
+        <v>59.562990000000028</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
+        <v>36.562990000000028</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
+        <v>1336.8522377401021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>45.611649999999997</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>-33.388350000000003</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="2"/>
+        <v>1114.7819157225001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>30.288010000000007</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
+        <v>-32.711989999999993</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>1070.0742897600996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>53.749099999999991</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>-23.250900000000009</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="2"/>
+        <v>540.60435081000037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>152</v>
+      </c>
+      <c r="B10" s="2">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>54.99983000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
+        <v>38.99983000000001</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
+        <v>1520.9867400289008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>57.428399999999996</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>14.428399999999996</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>208.17872655999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="11">
+        <f>SUM(I2:I11)</f>
+        <v>7856.5552487237019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <f>SUM(I2:I11)/10</f>
+        <v>785.65552487237017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="9">
+        <f>SQRT(I13)</f>
+        <v>28.029547354039988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STAT/finalStat/test_multiple.xlsx
+++ b/STAT/finalStat/test_multiple.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E96AC-DC4F-48DC-8F7E-EBBD23A23F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Test_final" sheetId="3" r:id="rId3"/>
+    <sheet name="train2" sheetId="2" r:id="rId2"/>
+    <sheet name="train3" sheetId="4" r:id="rId3"/>
+    <sheet name="Test_final" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Sum/N</t>
   </si>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
@@ -853,11 +853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H14" sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,10 +1229,386 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF4280F-800D-4C36-897E-565EE42152BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="180" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2">
+        <v>122</v>
+      </c>
+      <c r="D2" s="2">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2">
+        <f>42.3056-0.0973*(A2)+0.0547*(B2)+0.0116*(C2)+0.0833*(D2)</f>
+        <v>35.290499999999994</v>
+      </c>
+      <c r="G2" s="10">
+        <f>F2-E2</f>
+        <v>-15.709500000000006</v>
+      </c>
+      <c r="H2" s="10">
+        <f>G2^2</f>
+        <v>246.78839025000016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>172</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="0">42.3056-0.0973*(A3)+0.0547*(B3)+0.0116*(C3)+0.0833*(D3)</f>
+        <v>48.3446</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G11" si="1">F3-E3</f>
+        <v>8.3445999999999998</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H11" si="2">G3^2</f>
+        <v>69.63234915999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>34.008000000000003</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="1"/>
+        <v>-17.991999999999997</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="2"/>
+        <v>323.71206399999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>46.3474</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="1"/>
+        <v>0.34740000000000038</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.12068676000000025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>199</v>
+      </c>
+      <c r="B6" s="2">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>26.714299999999998</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>-10.285700000000002</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>105.79562449000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>169</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>171</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>33.222499999999997</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>4.2224999999999966</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>17.829506249999969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>46.717199999999998</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>4.7171999999999983</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>22.251975839999982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>47.634799999999998</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.3652000000000015</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8637710400000043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>151</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>32.47</v>
+      </c>
+      <c r="G10" s="10">
+        <f>F10-E10</f>
+        <v>-27.53</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>757.90090000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>152</v>
+      </c>
+      <c r="B11" s="2">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2">
+        <v>173</v>
+      </c>
+      <c r="D11" s="2">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>36.230099999999993</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>-13.769900000000007</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>189.61014601000019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>1735.5054138000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <f>SUM(H2:H11)/10</f>
+        <v>173.55054138000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SQRT(H13)</f>
+        <v>13.173858257169766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/STAT/finalStat/test_multiple.xlsx
+++ b/STAT/finalStat/test_multiple.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CEA739-399E-4B27-8496-8F52CB3A91E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="train3" sheetId="4" r:id="rId3"/>
     <sheet name="Test_final" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
@@ -853,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1229,10 +1230,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="180" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="180" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1605,10 +1606,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
